--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4416AE0B-8BE7-427C-B4CA-2C8A805D329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6634EB-AC9D-4075-A40C-9FDE1D2C346E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="23">
   <si>
     <t>Team 1</t>
   </si>
@@ -34,73 +34,61 @@
     <t>Winner</t>
   </si>
   <si>
-    <t>Team A</t>
-  </si>
-  <si>
-    <t>Team C</t>
-  </si>
-  <si>
-    <t>Team E</t>
-  </si>
-  <si>
-    <t>Team G</t>
-  </si>
-  <si>
-    <t>Team B</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>0-5</t>
-  </si>
-  <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>Team D</t>
-  </si>
-  <si>
-    <t>Team F</t>
-  </si>
-  <si>
-    <t>Team H</t>
-  </si>
-  <si>
-    <t>Team I</t>
-  </si>
-  <si>
-    <t>Draw</t>
-  </si>
-  <si>
-    <t>Team XXX</t>
-  </si>
-  <si>
-    <t>7-8</t>
-  </si>
-  <si>
-    <t>12-0</t>
-  </si>
-  <si>
-    <t>Team YYY</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>78-1</t>
+    <t>Mora A</t>
+  </si>
+  <si>
+    <t>Sabra</t>
+  </si>
+  <si>
+    <t>Not Yet Played</t>
+  </si>
+  <si>
+    <t>Pera</t>
+  </si>
+  <si>
+    <t>Wayamba</t>
+  </si>
+  <si>
+    <t>Ruhuna</t>
+  </si>
+  <si>
+    <t>Kelani</t>
+  </si>
+  <si>
+    <t>Japura</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Rajarata</t>
+  </si>
+  <si>
+    <t>Mora B</t>
+  </si>
+  <si>
+    <t>MA 1st</t>
+  </si>
+  <si>
+    <t>MB 2nd</t>
+  </si>
+  <si>
+    <t>MB 1st</t>
+  </si>
+  <si>
+    <t>MA 2nd</t>
+  </si>
+  <si>
+    <t>39 Looser</t>
+  </si>
+  <si>
+    <t>40 Looser</t>
+  </si>
+  <si>
+    <t>39 Winner</t>
+  </si>
+  <si>
+    <t>40 Winner</t>
   </si>
 </sst>
 </file>
@@ -469,13 +457,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -496,129 +489,273 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6634EB-AC9D-4075-A40C-9FDE1D2C346E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA355B23-DA52-4310-825B-348CF8C9A1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,16 +79,16 @@
     <t>MA 2nd</t>
   </si>
   <si>
-    <t>39 Looser</t>
-  </si>
-  <si>
-    <t>40 Looser</t>
-  </si>
-  <si>
-    <t>39 Winner</t>
-  </si>
-  <si>
-    <t>40 Winner</t>
+    <t>SF1 Looser</t>
+  </si>
+  <si>
+    <t>SF2 Looser</t>
+  </si>
+  <si>
+    <t>SF1 Winner</t>
+  </si>
+  <si>
+    <t>SF2 Winner</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA355B23-DA52-4310-825B-348CF8C9A1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024D7C64-CC14-4A18-B783-7DA50F02A0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,12 +147,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +461,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,7 +493,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>36617</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024D7C64-CC14-4A18-B783-7DA50F02A0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB980661-80A8-4F1F-B677-F71DE77A5BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="24">
   <si>
     <t>Team 1</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>SF2 Winner</t>
+  </si>
+  <si>
+    <t>4-0</t>
   </si>
 </sst>
 </file>
@@ -147,13 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +463,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,8 +497,8 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3">
-        <v>36617</v>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB980661-80A8-4F1F-B677-F71DE77A5BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E718F1F-42A9-41B3-BBEB-A410BD9ACEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
   <si>
     <t>Team 1</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>4-0</t>
+  </si>
+  <si>
+    <t>Draw</t>
+  </si>
+  <si>
+    <t>0-0</t>
   </si>
 </sst>
 </file>
@@ -463,7 +469,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,9 +515,11 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E718F1F-42A9-41B3-BBEB-A410BD9ACEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9149C552-C409-414A-8C76-866B2058C7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="26">
   <si>
     <t>Team 1</t>
   </si>
@@ -469,7 +469,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,9 +529,11 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9149C552-C409-414A-8C76-866B2058C7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666515DE-B609-46F0-A7C9-0209CD58B4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Team 1</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>0-0</t>
+  </si>
+  <si>
+    <t>0-1</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,9 +546,11 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666515DE-B609-46F0-A7C9-0209CD58B4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D8CE85-0063-4F8C-A826-F6EA4B4C2004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="29">
   <si>
     <t>Team 1</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>0-1</t>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>0-2</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,9 +566,11 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -572,9 +580,11 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -584,9 +594,11 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D8CE85-0063-4F8C-A826-F6EA4B4C2004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45C370A-9A55-4B22-9EE9-AF835E11909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
   <si>
     <t>Team 1</t>
   </si>
@@ -478,7 +478,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,9 +608,11 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45C370A-9A55-4B22-9EE9-AF835E11909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35F4AFE-EB55-4475-A11F-24CE24DA1647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
   <si>
     <t>Team 1</t>
   </si>
@@ -478,7 +478,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,9 +622,11 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35F4AFE-EB55-4475-A11F-24CE24DA1647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90B66A6-FE9D-4BA6-ADC3-8996D8FE246F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="29">
   <si>
     <t>Team 1</t>
   </si>
@@ -478,7 +478,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,9 +636,11 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -648,7 +650,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -659,7 +664,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90B66A6-FE9D-4BA6-ADC3-8996D8FE246F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A13365-B2D7-4E0C-96DE-FF16ADDDD07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
   <si>
     <t>Team 1</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>0-2</t>
+  </si>
+  <si>
+    <t>1-1</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,7 +681,10 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A13365-B2D7-4E0C-96DE-FF16ADDDD07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC45B12F-7025-4438-BF6D-FC3129CA2B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
   <si>
     <t>Team 1</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>1-1</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>0-3</t>
   </si>
 </sst>
 </file>
@@ -481,7 +487,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,7 +701,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -706,10 +715,13 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -717,10 +729,13 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -731,7 +746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -742,7 +757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -753,7 +768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -764,7 +779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -775,7 +790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -786,7 +801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -797,7 +812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC45B12F-7025-4438-BF6D-FC3129CA2B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97057C9E-51CE-41D7-87C3-B54C1B656174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
   <si>
     <t>Team 1</t>
   </si>
@@ -487,7 +487,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,7 +743,10 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97057C9E-51CE-41D7-87C3-B54C1B656174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00A4B54-E071-4141-86B3-ACFF0D3FED38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
   <si>
     <t>Team 1</t>
   </si>
@@ -487,7 +487,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,7 +757,10 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00A4B54-E071-4141-86B3-ACFF0D3FED38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF9D4EF-35C6-447A-B2C2-4A7133C122A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
   <si>
     <t>Team 1</t>
   </si>
@@ -487,7 +487,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,7 +771,10 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -782,7 +785,10 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF9D4EF-35C6-447A-B2C2-4A7133C122A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9755BF-7471-41D3-A9C4-62A10B63FB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
   <si>
     <t>Team 1</t>
   </si>
@@ -65,18 +65,6 @@
   </si>
   <si>
     <t>Mora B</t>
-  </si>
-  <si>
-    <t>MA 1st</t>
-  </si>
-  <si>
-    <t>MB 2nd</t>
-  </si>
-  <si>
-    <t>MB 1st</t>
-  </si>
-  <si>
-    <t>MA 2nd</t>
   </si>
   <si>
     <t>SF1 Looser</t>
@@ -487,7 +475,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -533,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -547,10 +535,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -564,7 +552,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -578,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -592,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -606,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -620,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -631,10 +619,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -645,10 +633,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -659,10 +647,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -676,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -687,10 +675,10 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -704,7 +692,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -715,10 +703,10 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -732,7 +720,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -746,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -760,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -774,7 +762,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -785,18 +773,18 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -804,10 +792,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -815,10 +803,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -826,10 +814,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9755BF-7471-41D3-A9C4-62A10B63FB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D477958E-8E58-4BF0-805B-F2B8B56FF5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="30">
   <si>
     <t>Team 1</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>0-3</t>
+  </si>
+  <si>
+    <t>SF 01 : Mora A</t>
+  </si>
+  <si>
+    <t>SF 02 : Colombo</t>
   </si>
 </sst>
 </file>
@@ -475,12 +481,12 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
@@ -781,7 +787,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -792,7 +798,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D477958E-8E58-4BF0-805B-F2B8B56FF5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AF5959-915D-43D0-A962-EF1253703EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="31">
   <si>
     <t>Team 1</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>SF 02 : Colombo</t>
+  </si>
+  <si>
+    <t>3-2</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,7 +796,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AF5959-915D-43D0-A962-EF1253703EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E05CFA9-7DE9-4647-AB5A-50B07D6B6C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="29">
   <si>
     <t>Team 1</t>
   </si>
@@ -67,18 +67,6 @@
     <t>Mora B</t>
   </si>
   <si>
-    <t>SF1 Looser</t>
-  </si>
-  <si>
-    <t>SF2 Looser</t>
-  </si>
-  <si>
-    <t>SF1 Winner</t>
-  </si>
-  <si>
-    <t>SF2 Winner</t>
-  </si>
-  <si>
     <t>4-0</t>
   </si>
   <si>
@@ -113,6 +101,12 @@
   </si>
   <si>
     <t>3-2</t>
+  </si>
+  <si>
+    <t>3rd Place : Kelani</t>
+  </si>
+  <si>
+    <t>Final : Mora A</t>
   </si>
 </sst>
 </file>
@@ -484,7 +478,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,7 +513,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -530,10 +524,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -544,10 +538,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -561,7 +555,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -575,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -589,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -603,7 +597,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -617,7 +611,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -628,10 +622,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -642,10 +636,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -656,10 +650,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -673,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -684,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -701,7 +695,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -712,10 +706,10 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -729,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -743,7 +737,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -757,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -771,7 +765,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -782,15 +776,15 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -799,26 +793,29 @@
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -826,10 +823,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E05CFA9-7DE9-4647-AB5A-50B07D6B6C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3ABE70-29C0-43A9-9D82-3EA24ADDCBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
   <si>
     <t>Team 1</t>
   </si>
@@ -478,7 +478,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,7 +818,10 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">

--- a/history_boys.xlsx
+++ b/history_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3ABE70-29C0-43A9-9D82-3EA24ADDCBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAAC43D-A8B6-43FF-BA50-1ED8F1DB8871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
   <si>
     <t>Team 1</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Sabra</t>
   </si>
   <si>
-    <t>Not Yet Played</t>
-  </si>
-  <si>
     <t>Pera</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>Final : Mora A</t>
+  </si>
+  <si>
+    <t>1-2</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,49 +513,49 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -563,13 +563,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -577,41 +577,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -619,13 +619,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -633,41 +633,41 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -675,55 +675,55 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -731,108 +731,111 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
